--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -31,280 +31,259 @@
     <t>Distance</t>
   </si>
   <si>
+    <t>l5Sp</t>
+  </si>
+  <si>
+    <t>l8Sp</t>
+  </si>
+  <si>
+    <t>l4Sp</t>
+  </si>
+  <si>
     <t>l12Sp</t>
   </si>
   <si>
-    <t>l4Sp</t>
-  </si>
-  <si>
     <t>l9Sp</t>
   </si>
   <si>
+    <t>l3Sp</t>
+  </si>
+  <si>
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l1Sp</t>
+  </si>
+  <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
+    <t>l7Sp</t>
+  </si>
+  <si>
     <t>l10Sp</t>
   </si>
   <si>
-    <t>l5Sp</t>
-  </si>
-  <si>
-    <t>l8Sp</t>
-  </si>
-  <si>
-    <t>l3Sp</t>
-  </si>
-  <si>
-    <t>l7Sp</t>
-  </si>
-  <si>
-    <t>l1Sp</t>
-  </si>
-  <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
     <t>l11Sp</t>
   </si>
   <si>
+    <t>TGCGA</t>
+  </si>
+  <si>
+    <t>GCATC</t>
+  </si>
+  <si>
+    <t>CTGAT</t>
+  </si>
+  <si>
     <t>GTACA</t>
   </si>
   <si>
-    <t>CTGAT</t>
-  </si>
-  <si>
     <t>TACAG</t>
   </si>
   <si>
+    <t>TCACG</t>
+  </si>
+  <si>
     <t>AGCTG</t>
   </si>
   <si>
+    <t>GACTA</t>
+  </si>
+  <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
+    <t>GTGAC</t>
+  </si>
+  <si>
     <t>CATGA</t>
   </si>
   <si>
-    <t>TGCGA</t>
-  </si>
-  <si>
-    <t>GCATC</t>
-  </si>
-  <si>
-    <t>TCACG</t>
-  </si>
-  <si>
-    <t>GTGAC</t>
-  </si>
-  <si>
-    <t>GACTA</t>
-  </si>
-  <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
     <t>CGATA</t>
   </si>
   <si>
+    <t>TGCCA</t>
+  </si>
+  <si>
     <t>TGCAA</t>
   </si>
   <si>
-    <t>TGCCA</t>
-  </si>
-  <si>
-    <t>CATGC</t>
-  </si>
-  <si>
     <t>TGCTG</t>
   </si>
   <si>
+    <t>TGCGT</t>
+  </si>
+  <si>
+    <t>AACTA</t>
+  </si>
+  <si>
+    <t>CTGAG</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
+    <t>GTCTA</t>
+  </si>
+  <si>
+    <t>TGTGC</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>TCATG</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTCAT</t>
+  </si>
+  <si>
+    <t>GGCGA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
+  </si>
+  <si>
+    <t>AGTCC</t>
+  </si>
+  <si>
+    <t>AGTTC</t>
+  </si>
+  <si>
+    <t>TTACG</t>
+  </si>
+  <si>
+    <t>TCAAG</t>
+  </si>
+  <si>
+    <t>CTTAT</t>
+  </si>
+  <si>
+    <t>GCATG</t>
+  </si>
+  <si>
+    <t>CGAAA</t>
+  </si>
+  <si>
     <t>CACTA</t>
   </si>
   <si>
+    <t>GACTG</t>
+  </si>
+  <si>
+    <t>GACTC</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>AGTAC</t>
+  </si>
+  <si>
+    <t>TCAGG</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCCCG</t>
+  </si>
+  <si>
     <t>CCGAT</t>
   </si>
   <si>
-    <t>CTGAG</t>
-  </si>
-  <si>
-    <t>AACTA</t>
-  </si>
-  <si>
-    <t>TCCCG</t>
-  </si>
-  <si>
-    <t>CTTAT</t>
-  </si>
-  <si>
-    <t>CAGAT</t>
+    <t>CTGTT</t>
+  </si>
+  <si>
+    <t>CGGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
+    <t>CTAAT</t>
   </si>
   <si>
     <t>TGGGA</t>
   </si>
   <si>
-    <t>ACATC</t>
-  </si>
-  <si>
-    <t>GATTA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>AGTCC</t>
-  </si>
-  <si>
-    <t>AGTTC</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
-    <t>ACCTG</t>
-  </si>
-  <si>
-    <t>TACAA</t>
-  </si>
-  <si>
-    <t>GATGA</t>
-  </si>
-  <si>
-    <t>CAATA</t>
-  </si>
-  <si>
-    <t>CGGTA</t>
-  </si>
-  <si>
-    <t>GGATA</t>
-  </si>
-  <si>
-    <t>GCACA</t>
-  </si>
-  <si>
-    <t>GTACT</t>
-  </si>
-  <si>
-    <t>GTCTA</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GGCTA</t>
-  </si>
-  <si>
-    <t>GACTT</t>
-  </si>
-  <si>
-    <t>CGTGC</t>
-  </si>
-  <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>AATGC</t>
-  </si>
-  <si>
-    <t>AGTGT</t>
-  </si>
-  <si>
-    <t>GCACG</t>
-  </si>
-  <si>
-    <t>TCAAG</t>
-  </si>
-  <si>
-    <t>CGGAT</t>
-  </si>
-  <si>
-    <t>CTCAT</t>
-  </si>
-  <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
-    <t>CTGGT</t>
-  </si>
-  <si>
-    <t>TGTGA</t>
-  </si>
-  <si>
-    <t>TGAGA</t>
-  </si>
-  <si>
-    <t>TGCGG</t>
-  </si>
-  <si>
-    <t>AGCGG</t>
+    <t>GTTAC</t>
+  </si>
+  <si>
+    <t>GCTTC</t>
   </si>
   <si>
     <t>GCATT</t>
   </si>
   <si>
-    <t>GCATA</t>
-  </si>
-  <si>
-    <t>CACAG</t>
-  </si>
-  <si>
-    <t>TAATA</t>
-  </si>
-  <si>
-    <t>CCCTA</t>
-  </si>
-  <si>
-    <t>AACCA</t>
-  </si>
-  <si>
-    <t>GTTTA</t>
+    <t>CCATC</t>
+  </si>
+  <si>
+    <t>TAGAG</t>
+  </si>
+  <si>
+    <t>GGTTA</t>
+  </si>
+  <si>
+    <t>TATTA</t>
+  </si>
+  <si>
+    <t>AAATA</t>
   </si>
   <si>
     <t>TTCTA</t>
   </si>
   <si>
-    <t>AACTC</t>
-  </si>
-  <si>
-    <t>TATTA</t>
-  </si>
-  <si>
-    <t>ATTGT</t>
-  </si>
-  <si>
-    <t>AGGGA</t>
-  </si>
-  <si>
-    <t>AATTC</t>
-  </si>
-  <si>
-    <t>TCATT</t>
-  </si>
-  <si>
-    <t>TGTCG</t>
-  </si>
-  <si>
-    <t>TGGGT</t>
+    <t>AACTT</t>
+  </si>
+  <si>
+    <t>GCCTT</t>
+  </si>
+  <si>
+    <t>GTCTT</t>
+  </si>
+  <si>
+    <t>TAACA</t>
+  </si>
+  <si>
+    <t>GGGAT</t>
+  </si>
+  <si>
+    <t>TTGTT</t>
+  </si>
+  <si>
+    <t>TTCCA</t>
   </si>
 </sst>
 </file>
@@ -662,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -719,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -739,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -759,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -779,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -799,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -819,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -839,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -859,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -879,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -899,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -910,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -930,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -950,16 +929,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -970,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -990,16 +969,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1010,13 +989,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1030,13 +1009,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1050,16 +1029,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1070,16 +1049,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1090,16 +1069,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1110,13 +1089,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1130,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1150,13 +1129,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1170,16 +1149,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1190,16 +1169,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1210,16 +1189,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1230,16 +1209,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1250,13 +1229,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1270,13 +1249,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1290,13 +1269,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1310,13 +1289,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1330,13 +1309,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1350,13 +1329,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1370,13 +1349,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1390,16 +1369,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1410,16 +1389,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1430,13 +1409,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1450,13 +1429,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1470,13 +1449,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1490,13 +1469,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1510,13 +1489,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1530,13 +1509,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1550,13 +1529,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1570,13 +1549,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1590,13 +1569,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1610,13 +1589,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1630,13 +1609,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1650,13 +1629,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1670,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1690,13 +1669,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1710,13 +1689,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1730,13 +1709,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1750,13 +1729,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1770,13 +1749,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1790,13 +1769,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1810,13 +1789,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1830,13 +1809,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1856,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1870,13 +1849,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1890,13 +1869,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1910,13 +1889,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1930,19 +1909,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1950,19 +1929,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1970,19 +1949,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1990,19 +1969,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2010,16 +1989,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2030,13 +2009,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2050,13 +2029,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2070,13 +2049,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2090,13 +2069,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2110,13 +2089,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2130,138 +2109,18 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -37,12 +37,12 @@
     <t>l8Sp</t>
   </si>
   <si>
+    <t>l12Sp</t>
+  </si>
+  <si>
     <t>l4Sp</t>
   </si>
   <si>
-    <t>l12Sp</t>
-  </si>
-  <si>
     <t>l9Sp</t>
   </si>
   <si>
@@ -52,12 +52,12 @@
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
     <t>l1Sp</t>
   </si>
   <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
     <t>l7Sp</t>
   </si>
   <si>
@@ -73,12 +73,12 @@
     <t>GCATC</t>
   </si>
   <si>
+    <t>GTACA</t>
+  </si>
+  <si>
     <t>CTGAT</t>
   </si>
   <si>
-    <t>GTACA</t>
-  </si>
-  <si>
     <t>TACAG</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>AGCTG</t>
   </si>
   <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
     <t>GACTA</t>
   </si>
   <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
     <t>GTGAC</t>
   </si>
   <si>
@@ -115,45 +115,45 @@
     <t>TGCGT</t>
   </si>
   <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
     <t>AACTA</t>
   </si>
   <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>GTCTA</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>TCATG</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTCAT</t>
+  </si>
+  <si>
     <t>CTGAG</t>
   </si>
   <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTGGT</t>
-  </si>
-  <si>
     <t>TGCTA</t>
   </si>
   <si>
-    <t>GTCTA</t>
+    <t>GGCGA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
   </si>
   <si>
     <t>TGTGC</t>
   </si>
   <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>TCATG</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTCAT</t>
-  </si>
-  <si>
-    <t>GGCGA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
     <t>AGTCC</t>
   </si>
   <si>
@@ -169,84 +169,78 @@
     <t>CTTAT</t>
   </si>
   <si>
+    <t>CGAAA</t>
+  </si>
+  <si>
+    <t>CACTA</t>
+  </si>
+  <si>
+    <t>GACTG</t>
+  </si>
+  <si>
+    <t>GACTC</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>AGTAC</t>
+  </si>
+  <si>
+    <t>TCAGG</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCCCG</t>
+  </si>
+  <si>
+    <t>CCGAT</t>
+  </si>
+  <si>
+    <t>CTGTT</t>
+  </si>
+  <si>
+    <t>CGGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
+    <t>CTAAT</t>
+  </si>
+  <si>
+    <t>GTTAC</t>
+  </si>
+  <si>
+    <t>GCATT</t>
+  </si>
+  <si>
     <t>GCATG</t>
   </si>
   <si>
-    <t>CGAAA</t>
-  </si>
-  <si>
-    <t>CACTA</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GACTC</t>
-  </si>
-  <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>TCAGG</t>
-  </si>
-  <si>
-    <t>TCTCG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>TCACA</t>
-  </si>
-  <si>
-    <t>ACACG</t>
-  </si>
-  <si>
-    <t>CCACG</t>
-  </si>
-  <si>
-    <t>TCCCG</t>
-  </si>
-  <si>
-    <t>CCGAT</t>
-  </si>
-  <si>
-    <t>CTGTT</t>
-  </si>
-  <si>
-    <t>CGGAT</t>
-  </si>
-  <si>
-    <t>CTGAA</t>
-  </si>
-  <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
-    <t>TGGGA</t>
-  </si>
-  <si>
-    <t>GTTAC</t>
-  </si>
-  <si>
-    <t>GCTTC</t>
-  </si>
-  <si>
-    <t>GCATT</t>
-  </si>
-  <si>
     <t>CCATC</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
   </si>
   <si>
     <t>TAACA</t>
-  </si>
-  <si>
-    <t>GGGAT</t>
   </si>
   <si>
     <t>TTGTT</t>
@@ -641,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -698,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -718,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -738,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -778,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -798,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -818,7 +809,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -858,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -898,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -918,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -989,16 +980,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1009,10 +1000,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1029,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -1049,16 +1040,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1069,16 +1060,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1089,10 +1080,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1109,10 +1100,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1129,10 +1120,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
@@ -1149,10 +1140,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -1169,10 +1160,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1189,10 +1180,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
@@ -1209,16 +1200,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1249,10 +1240,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -1269,10 +1260,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -1329,10 +1320,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
@@ -1349,16 +1340,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1369,10 +1360,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -1389,10 +1380,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -1409,10 +1400,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -1449,10 +1440,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>56</v>
@@ -1469,10 +1460,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -1489,10 +1480,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
@@ -1509,10 +1500,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
@@ -1529,10 +1520,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
@@ -1669,10 +1660,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>67</v>
@@ -1689,10 +1680,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
@@ -1709,10 +1700,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -1729,10 +1720,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -1749,10 +1740,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
@@ -1769,10 +1760,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>72</v>
@@ -1789,10 +1780,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
@@ -1809,10 +1800,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>74</v>
@@ -1849,10 +1840,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -1869,19 +1860,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1889,10 +1880,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
@@ -1901,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1909,16 +1900,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1929,10 +1920,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -1949,10 +1940,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1969,10 +1960,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
         <v>82</v>
@@ -1989,10 +1980,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -2009,10 +2000,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>84</v>
@@ -2029,10 +2020,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>85</v>
@@ -2049,10 +2040,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
@@ -2061,66 +2052,6 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -52,12 +52,12 @@
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l1Sp</t>
+  </si>
+  <si>
     <t>l2Sp</t>
   </si>
   <si>
-    <t>l1Sp</t>
-  </si>
-  <si>
     <t>l7Sp</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>AGCTG</t>
   </si>
   <si>
+    <t>GACTA</t>
+  </si>
+  <si>
     <t>AGTGC</t>
   </si>
   <si>
-    <t>GACTA</t>
-  </si>
-  <si>
     <t>GTGAC</t>
   </si>
   <si>
@@ -112,36 +112,39 @@
     <t>TGCTG</t>
   </si>
   <si>
+    <t>AACTA</t>
+  </si>
+  <si>
+    <t>CTGAG</t>
+  </si>
+  <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
+    <t>GTCTA</t>
+  </si>
+  <si>
+    <t>TGTGC</t>
+  </si>
+  <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>TCATG</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTCAT</t>
+  </si>
+  <si>
     <t>TGCGT</t>
   </si>
   <si>
-    <t>CTGGT</t>
-  </si>
-  <si>
-    <t>AACTA</t>
-  </si>
-  <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>GTCTA</t>
-  </si>
-  <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>TCATG</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTCAT</t>
-  </si>
-  <si>
-    <t>CTGAG</t>
-  </si>
-  <si>
     <t>TGCTA</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>TACTA</t>
   </si>
   <si>
-    <t>TGTGC</t>
-  </si>
-  <si>
     <t>AGTCC</t>
   </si>
   <si>
@@ -169,6 +169,12 @@
     <t>CTTAT</t>
   </si>
   <si>
+    <t>CTAAT</t>
+  </si>
+  <si>
+    <t>TGGGA</t>
+  </si>
+  <si>
     <t>CGAAA</t>
   </si>
   <si>
@@ -181,9 +187,6 @@
     <t>GACTC</t>
   </si>
   <si>
-    <t>AGTGG</t>
-  </si>
-  <si>
     <t>ATTGC</t>
   </si>
   <si>
@@ -196,18 +199,12 @@
     <t>AGTAC</t>
   </si>
   <si>
-    <t>TCAGG</t>
-  </si>
-  <si>
     <t>TCTCG</t>
   </si>
   <si>
     <t>TCACT</t>
   </si>
   <si>
-    <t>TCACA</t>
-  </si>
-  <si>
     <t>ACACG</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>CTGAA</t>
   </si>
   <si>
-    <t>CTAAT</t>
-  </si>
-  <si>
     <t>GTTAC</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
   </si>
   <si>
     <t>AAATA</t>
-  </si>
-  <si>
-    <t>TTCTA</t>
   </si>
   <si>
     <t>AACTT</t>
@@ -632,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -689,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -709,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -729,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -749,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -769,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -789,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -829,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -849,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -909,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -929,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -960,16 +951,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -989,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1000,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1040,10 +1031,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -1060,10 +1051,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1080,10 +1071,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1100,10 +1091,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1200,16 +1191,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1240,10 +1231,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -1260,10 +1251,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -1340,16 +1331,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1360,16 +1351,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1380,10 +1371,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -1400,10 +1391,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -1460,10 +1451,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -1480,10 +1471,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
@@ -1500,10 +1491,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
@@ -1520,10 +1511,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
@@ -1640,10 +1631,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -1720,10 +1711,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -1740,10 +1731,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
@@ -1760,10 +1751,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>72</v>
@@ -1800,10 +1791,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>74</v>
@@ -1820,19 +1811,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>75</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1840,10 +1831,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -1852,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1860,16 +1851,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -1880,10 +1871,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
@@ -1900,10 +1891,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -1920,10 +1911,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -1940,10 +1931,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1960,10 +1951,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>82</v>
@@ -1980,10 +1971,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -1992,66 +1983,6 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
         <v>2</v>
       </c>
     </row>

--- a/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/BC_analysis/D501-D702_unmapped-BC-analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -52,12 +52,12 @@
     <t>l6Sp</t>
   </si>
   <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
     <t>l1Sp</t>
   </si>
   <si>
-    <t>l2Sp</t>
-  </si>
-  <si>
     <t>l7Sp</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>AGCTG</t>
   </si>
   <si>
+    <t>AGTGC</t>
+  </si>
+  <si>
     <t>GACTA</t>
   </si>
   <si>
-    <t>AGTGC</t>
-  </si>
-  <si>
     <t>GTGAC</t>
   </si>
   <si>
@@ -112,48 +112,48 @@
     <t>TGCTG</t>
   </si>
   <si>
+    <t>CTGCT</t>
+  </si>
+  <si>
+    <t>CTGGT</t>
+  </si>
+  <si>
     <t>AACTA</t>
   </si>
   <si>
     <t>CTGAG</t>
   </si>
   <si>
-    <t>CTGCT</t>
-  </si>
-  <si>
-    <t>CTGGT</t>
+    <t>TGCGT</t>
   </si>
   <si>
     <t>GTCTA</t>
   </si>
   <si>
+    <t>GGTGC</t>
+  </si>
+  <si>
+    <t>TCATG</t>
+  </si>
+  <si>
+    <t>GTGAT</t>
+  </si>
+  <si>
+    <t>CTCAT</t>
+  </si>
+  <si>
+    <t>TGCTA</t>
+  </si>
+  <si>
+    <t>GGCGA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
+  </si>
+  <si>
     <t>TGTGC</t>
   </si>
   <si>
-    <t>GGTGC</t>
-  </si>
-  <si>
-    <t>TCATG</t>
-  </si>
-  <si>
-    <t>GTGAT</t>
-  </si>
-  <si>
-    <t>CTCAT</t>
-  </si>
-  <si>
-    <t>TGCGT</t>
-  </si>
-  <si>
-    <t>TGCTA</t>
-  </si>
-  <si>
-    <t>GGCGA</t>
-  </si>
-  <si>
-    <t>TACTA</t>
-  </si>
-  <si>
     <t>AGTCC</t>
   </si>
   <si>
@@ -169,61 +169,73 @@
     <t>CTTAT</t>
   </si>
   <si>
+    <t>GCATG</t>
+  </si>
+  <si>
+    <t>CGAAA</t>
+  </si>
+  <si>
+    <t>CACTA</t>
+  </si>
+  <si>
+    <t>GACTG</t>
+  </si>
+  <si>
+    <t>GACTC</t>
+  </si>
+  <si>
+    <t>AGTGG</t>
+  </si>
+  <si>
+    <t>ATTGC</t>
+  </si>
+  <si>
+    <t>ACTGC</t>
+  </si>
+  <si>
+    <t>AGTGA</t>
+  </si>
+  <si>
+    <t>AGTAC</t>
+  </si>
+  <si>
+    <t>TCTCG</t>
+  </si>
+  <si>
+    <t>TCACT</t>
+  </si>
+  <si>
+    <t>TCACA</t>
+  </si>
+  <si>
+    <t>ACACG</t>
+  </si>
+  <si>
+    <t>CCACG</t>
+  </si>
+  <si>
+    <t>TCCCG</t>
+  </si>
+  <si>
+    <t>CCGAT</t>
+  </si>
+  <si>
+    <t>CTGTT</t>
+  </si>
+  <si>
+    <t>CGGAT</t>
+  </si>
+  <si>
+    <t>CTGAA</t>
+  </si>
+  <si>
     <t>CTAAT</t>
   </si>
   <si>
     <t>TGGGA</t>
   </si>
   <si>
-    <t>CGAAA</t>
-  </si>
-  <si>
-    <t>CACTA</t>
-  </si>
-  <si>
-    <t>GACTG</t>
-  </si>
-  <si>
-    <t>GACTC</t>
-  </si>
-  <si>
-    <t>ATTGC</t>
-  </si>
-  <si>
-    <t>ACTGC</t>
-  </si>
-  <si>
-    <t>AGTGA</t>
-  </si>
-  <si>
-    <t>AGTAC</t>
-  </si>
-  <si>
-    <t>TCTCG</t>
-  </si>
-  <si>
-    <t>TCACT</t>
-  </si>
-  <si>
-    <t>ACACG</t>
-  </si>
-  <si>
-    <t>CCACG</t>
-  </si>
-  <si>
-    <t>TCCCG</t>
-  </si>
-  <si>
-    <t>CCGAT</t>
-  </si>
-  <si>
-    <t>CTGTT</t>
-  </si>
-  <si>
-    <t>CGGAT</t>
-  </si>
-  <si>
-    <t>CTGAA</t>
+    <t>TGAGA</t>
   </si>
   <si>
     <t>GTTAC</t>
@@ -232,9 +244,6 @@
     <t>GCATT</t>
   </si>
   <si>
-    <t>GCATG</t>
-  </si>
-  <si>
     <t>CCATC</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
   </si>
   <si>
     <t>AAATA</t>
+  </si>
+  <si>
+    <t>TTCTA</t>
   </si>
   <si>
     <t>AACTT</t>
@@ -623,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -680,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -740,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -760,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -780,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -800,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -820,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -840,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -900,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -920,7 +932,7 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -940,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -951,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -980,7 +992,7 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -991,10 +1003,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1031,16 +1043,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1071,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1191,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1231,10 +1243,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -1251,10 +1263,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -1331,10 +1343,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
@@ -1351,16 +1363,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1371,10 +1383,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -1391,10 +1403,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
@@ -1411,10 +1423,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -1451,10 +1463,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -1471,10 +1483,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
@@ -1491,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
@@ -1511,10 +1523,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
@@ -1631,10 +1643,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -1711,10 +1723,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -1731,10 +1743,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
@@ -1751,10 +1763,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>72</v>
@@ -1771,10 +1783,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>73</v>
@@ -1791,10 +1803,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
         <v>74</v>
@@ -1811,19 +1823,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>75</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1831,10 +1843,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -1843,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1851,10 +1863,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>77</v>
@@ -1863,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1871,16 +1883,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1891,10 +1903,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -1911,10 +1923,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -1931,10 +1943,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
@@ -1951,10 +1963,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
         <v>82</v>
@@ -1971,10 +1983,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -1983,6 +1995,86 @@
         <v>1</v>
       </c>
       <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
